--- a/input/params_special.xlsx
+++ b/input/params_special.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work Projects\cpv\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="5235" windowWidth="27645" windowHeight="8190" tabRatio="500"/>
   </bookViews>
@@ -197,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,6 +385,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -427,7 +435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,7 +470,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -673,9 +681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,6 +774,15 @@
       <c r="J2" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>999</v>
+      </c>
+      <c r="M2">
+        <v>999</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -798,6 +815,15 @@
       <c r="J3" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>999</v>
+      </c>
+      <c r="M3">
+        <v>999</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -830,6 +856,15 @@
       <c r="J4" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>999</v>
+      </c>
+      <c r="M4">
+        <v>999</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -865,6 +900,12 @@
       <c r="K5">
         <v>2</v>
       </c>
+      <c r="L5">
+        <v>999</v>
+      </c>
+      <c r="M5">
+        <v>999</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -900,6 +941,12 @@
       <c r="K6">
         <v>2</v>
       </c>
+      <c r="L6">
+        <v>999</v>
+      </c>
+      <c r="M6">
+        <v>999</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -935,6 +982,12 @@
       <c r="K7">
         <v>2</v>
       </c>
+      <c r="L7">
+        <v>999</v>
+      </c>
+      <c r="M7">
+        <v>999</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -970,6 +1023,12 @@
       <c r="K8">
         <v>2</v>
       </c>
+      <c r="L8">
+        <v>999</v>
+      </c>
+      <c r="M8">
+        <v>999</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -1005,6 +1064,12 @@
       <c r="K9">
         <v>2</v>
       </c>
+      <c r="L9">
+        <v>999</v>
+      </c>
+      <c r="M9">
+        <v>999</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1040,6 +1105,12 @@
       <c r="K10">
         <v>2</v>
       </c>
+      <c r="L10">
+        <v>999</v>
+      </c>
+      <c r="M10">
+        <v>999</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -1075,6 +1146,12 @@
       <c r="K11">
         <v>2</v>
       </c>
+      <c r="L11">
+        <v>999</v>
+      </c>
+      <c r="M11">
+        <v>999</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -1110,6 +1187,12 @@
       <c r="K12">
         <v>2</v>
       </c>
+      <c r="L12">
+        <v>999</v>
+      </c>
+      <c r="M12">
+        <v>999</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -1145,6 +1228,12 @@
       <c r="K13">
         <v>2</v>
       </c>
+      <c r="L13">
+        <v>999</v>
+      </c>
+      <c r="M13">
+        <v>999</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -1180,6 +1269,12 @@
       <c r="K14">
         <v>2</v>
       </c>
+      <c r="L14">
+        <v>999</v>
+      </c>
+      <c r="M14">
+        <v>999</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1215,6 +1310,12 @@
       <c r="K15" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="L15">
+        <v>999</v>
+      </c>
+      <c r="M15">
+        <v>999</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -1250,8 +1351,14 @@
       <c r="K16" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>999</v>
+      </c>
+      <c r="M16">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
@@ -1285,8 +1392,14 @@
       <c r="K17" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>999</v>
+      </c>
+      <c r="M17">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
@@ -1320,8 +1433,14 @@
       <c r="K18" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>999</v>
+      </c>
+      <c r="M18">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -1355,8 +1474,14 @@
       <c r="K19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>999</v>
+      </c>
+      <c r="M19">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1390,8 +1515,14 @@
       <c r="K20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>999</v>
+      </c>
+      <c r="M20">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
@@ -1425,8 +1556,14 @@
       <c r="K21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>999</v>
+      </c>
+      <c r="M21">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -1460,8 +1597,14 @@
       <c r="K22" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>999</v>
+      </c>
+      <c r="M22">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>18</v>
       </c>
@@ -1495,8 +1638,14 @@
       <c r="K23" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>999</v>
+      </c>
+      <c r="M23">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>18</v>
       </c>
@@ -1530,8 +1679,14 @@
       <c r="K24" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>999</v>
+      </c>
+      <c r="M24">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
@@ -1564,6 +1719,12 @@
       </c>
       <c r="K25" s="11" t="s">
         <v>53</v>
+      </c>
+      <c r="L25">
+        <v>999</v>
+      </c>
+      <c r="M25">
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/input/params_special.xlsx
+++ b/input/params_special.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="61">
   <si>
     <t>emi_master</t>
   </si>
@@ -197,6 +197,21 @@
   </si>
   <si>
     <t>range_max</t>
+  </si>
+  <si>
+    <t>EMI_0701</t>
+  </si>
+  <si>
+    <t>EMI_1003</t>
+  </si>
+  <si>
+    <t>AG-EUUS</t>
+  </si>
+  <si>
+    <t>AG-JP</t>
+  </si>
+  <si>
+    <t>EMI_0702</t>
   </si>
 </sst>
 </file>
@@ -679,11 +694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,10 +1311,10 @@
         <v>6</v>
       </c>
       <c r="G15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>39</v>
@@ -1337,10 +1352,10 @@
         <v>7</v>
       </c>
       <c r="G16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>41</v>
@@ -1378,10 +1393,10 @@
         <v>8</v>
       </c>
       <c r="G17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>43</v>
@@ -1419,10 +1434,10 @@
         <v>9</v>
       </c>
       <c r="G18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>45</v>
@@ -1583,10 +1598,10 @@
         <v>11</v>
       </c>
       <c r="G22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>40</v>
@@ -1624,10 +1639,10 @@
         <v>12</v>
       </c>
       <c r="G23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>42</v>
@@ -1665,10 +1680,10 @@
         <v>13</v>
       </c>
       <c r="G24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>44</v>
@@ -1706,10 +1721,10 @@
         <v>14</v>
       </c>
       <c r="G25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>46</v>
@@ -1724,6 +1739,252 @@
         <v>999</v>
       </c>
       <c r="M25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="7">
+        <v>15</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>999</v>
+      </c>
+      <c r="M26">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7">
+        <v>15</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>999</v>
+      </c>
+      <c r="M27">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="7">
+        <v>15</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>999</v>
+      </c>
+      <c r="M28">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="7">
+        <v>16</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>999</v>
+      </c>
+      <c r="M29">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="7">
+        <v>16</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>999</v>
+      </c>
+      <c r="M30">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="7">
+        <v>16</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>999</v>
+      </c>
+      <c r="M31">
         <v>999</v>
       </c>
     </row>

--- a/input/params_special.xlsx
+++ b/input/params_special.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$223</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="79">
   <si>
     <t>emi_master</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>EMI_1033</t>
-  </si>
-  <si>
-    <t>1st TIC</t>
   </si>
   <si>
     <t>SYR-322</t>
@@ -773,7 +770,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,10 +804,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
@@ -819,19 +816,19 @@
         <v>5</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="L1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -848,7 +845,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
@@ -860,10 +857,10 @@
         <v>11</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -889,7 +886,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="7">
         <v>2</v>
@@ -901,10 +898,10 @@
         <v>11</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -927,10 +924,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7">
         <v>3</v>
@@ -942,10 +939,10 @@
         <v>11</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -968,10 +965,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7">
         <v>3</v>
@@ -983,10 +980,10 @@
         <v>11</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1009,10 +1006,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7">
         <v>3</v>
@@ -1024,10 +1021,10 @@
         <v>11</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1050,10 +1047,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7">
         <v>3</v>
@@ -1065,10 +1062,10 @@
         <v>11</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1091,10 +1088,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7">
         <v>3</v>
@@ -1106,10 +1103,10 @@
         <v>11</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1132,10 +1129,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7">
         <v>3</v>
@@ -1147,10 +1144,10 @@
         <v>11</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1173,10 +1170,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7">
         <v>3</v>
@@ -1188,10 +1185,10 @@
         <v>11</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1214,10 +1211,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="7">
         <v>3</v>
@@ -1229,10 +1226,10 @@
         <v>11</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1255,10 +1252,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7">
         <v>3</v>
@@ -1270,10 +1267,10 @@
         <v>11</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1296,10 +1293,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="7">
         <v>3</v>
@@ -1311,10 +1308,10 @@
         <v>11</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1337,10 +1334,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="7">
         <v>3</v>
@@ -1352,10 +1349,10 @@
         <v>11</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1378,10 +1375,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7">
         <v>3</v>
@@ -1393,10 +1390,10 @@
         <v>11</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1419,10 +1416,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7">
         <v>3</v>
@@ -1434,10 +1431,10 @@
         <v>11</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1460,10 +1457,10 @@
         <v>8</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="7">
         <v>3</v>
@@ -1475,10 +1472,10 @@
         <v>11</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1501,10 +1498,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7">
         <v>3</v>
@@ -1516,10 +1513,10 @@
         <v>11</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1542,10 +1539,10 @@
         <v>8</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="7">
         <v>3</v>
@@ -1557,10 +1554,10 @@
         <v>11</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1583,10 +1580,10 @@
         <v>8</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="7">
         <v>3</v>
@@ -1598,10 +1595,10 @@
         <v>11</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1624,10 +1621,10 @@
         <v>8</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7">
         <v>3</v>
@@ -1639,10 +1636,10 @@
         <v>11</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1665,10 +1662,10 @@
         <v>8</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="7">
         <v>3</v>
@@ -1680,10 +1677,10 @@
         <v>11</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1706,10 +1703,10 @@
         <v>8</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="7">
         <v>3</v>
@@ -1721,10 +1718,10 @@
         <v>11</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1750,7 +1747,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="7">
         <v>4</v>
@@ -1762,10 +1759,10 @@
         <v>11</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1788,10 +1785,10 @@
         <v>8</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" s="7">
         <v>5</v>
@@ -1803,10 +1800,10 @@
         <v>11</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1829,10 +1826,10 @@
         <v>8</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" s="7">
         <v>5</v>
@@ -1844,10 +1841,10 @@
         <v>11</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -1870,10 +1867,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" s="7">
         <v>5</v>
@@ -1885,10 +1882,10 @@
         <v>11</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -1911,10 +1908,10 @@
         <v>8</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" s="7">
         <v>5</v>
@@ -1926,10 +1923,10 @@
         <v>11</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -1952,10 +1949,10 @@
         <v>8</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" s="7">
         <v>5</v>
@@ -1967,10 +1964,10 @@
         <v>11</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -1993,10 +1990,10 @@
         <v>8</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" s="7">
         <v>5</v>
@@ -2008,10 +2005,10 @@
         <v>11</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2034,10 +2031,10 @@
         <v>8</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="7">
         <v>5</v>
@@ -2049,10 +2046,10 @@
         <v>11</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2075,10 +2072,10 @@
         <v>8</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32" s="7">
         <v>5</v>
@@ -2090,10 +2087,10 @@
         <v>11</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2116,10 +2113,10 @@
         <v>8</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" s="7">
         <v>5</v>
@@ -2131,10 +2128,10 @@
         <v>11</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2157,10 +2154,10 @@
         <v>8</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34" s="7">
         <v>5</v>
@@ -2172,10 +2169,10 @@
         <v>11</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2198,10 +2195,10 @@
         <v>8</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F35" s="7">
         <v>5</v>
@@ -2213,10 +2210,10 @@
         <v>11</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2239,10 +2236,10 @@
         <v>8</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F36" s="7">
         <v>5</v>
@@ -2254,10 +2251,10 @@
         <v>11</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -2280,10 +2277,10 @@
         <v>8</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F37" s="7">
         <v>5</v>
@@ -2295,10 +2292,10 @@
         <v>11</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -2321,10 +2318,10 @@
         <v>8</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F38" s="7">
         <v>5</v>
@@ -2336,10 +2333,10 @@
         <v>11</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -2362,10 +2359,10 @@
         <v>8</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F39" s="7">
         <v>5</v>
@@ -2377,10 +2374,10 @@
         <v>11</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -2403,10 +2400,10 @@
         <v>8</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F40" s="7">
         <v>5</v>
@@ -2418,10 +2415,10 @@
         <v>11</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -2444,10 +2441,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F41" s="7">
         <v>5</v>
@@ -2459,10 +2456,10 @@
         <v>11</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -2485,10 +2482,10 @@
         <v>8</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F42" s="7">
         <v>5</v>
@@ -2500,10 +2497,10 @@
         <v>11</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -2526,10 +2523,10 @@
         <v>8</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F43" s="7">
         <v>5</v>
@@ -2541,10 +2538,10 @@
         <v>11</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -2567,10 +2564,10 @@
         <v>8</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F44" s="7">
         <v>5</v>
@@ -2582,10 +2579,10 @@
         <v>11</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -2599,10 +2596,10 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>8</v>
@@ -2611,7 +2608,7 @@
         <v>9</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F45" s="7">
         <v>6</v>
@@ -2620,13 +2617,13 @@
         <v>10</v>
       </c>
       <c r="H45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="J45" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -2640,10 +2637,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>8</v>
@@ -2652,7 +2649,7 @@
         <v>13</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F46" s="7">
         <v>7</v>
@@ -2661,13 +2658,13 @@
         <v>10</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -2681,34 +2678,34 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="7">
+        <v>8</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="7">
-        <v>8</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I47" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K47" s="14">
         <v>2</v>
@@ -2722,34 +2719,34 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="C48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="7">
+        <v>8</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="7">
-        <v>8</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I48" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K48" s="14">
         <v>2</v>
@@ -2763,34 +2760,34 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="7">
+        <v>8</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="7">
-        <v>8</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I49" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K49" s="14">
         <v>2</v>
@@ -2804,34 +2801,34 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="7">
+        <v>8</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="7">
-        <v>8</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I50" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K50" s="14">
         <v>2</v>
@@ -2845,34 +2842,34 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="7">
+        <v>8</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="7">
-        <v>8</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I51" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -2886,34 +2883,34 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="7">
+        <v>8</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="7">
-        <v>8</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I52" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K52" s="14">
         <v>2</v>
@@ -2927,34 +2924,34 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="C53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="7">
+        <v>8</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="7">
-        <v>8</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I53" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K53" s="14">
         <v>2</v>
@@ -2968,34 +2965,34 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="7">
+        <v>8</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="7">
-        <v>8</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I54" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K54" s="14">
         <v>2</v>
@@ -3009,34 +3006,34 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="C55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="7">
+        <v>8</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="7">
-        <v>8</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I55" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K55" s="14">
         <v>2</v>
@@ -3050,34 +3047,34 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="C56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="7">
+        <v>8</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="7">
-        <v>8</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I56" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -3091,34 +3088,34 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="C57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="7">
+        <v>8</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="7">
-        <v>8</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I57" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -3132,34 +3129,34 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="C58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="7">
+        <v>8</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="7">
-        <v>8</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I58" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -3173,34 +3170,34 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="C59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="7">
+        <v>8</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="7">
-        <v>8</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I59" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -3214,34 +3211,34 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="C60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="7">
+        <v>8</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="7">
-        <v>8</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I60" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -3255,34 +3252,34 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="C61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="7">
+        <v>8</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="7">
-        <v>8</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I61" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -3296,34 +3293,34 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="C62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="7">
+        <v>8</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="7">
-        <v>8</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I62" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -3337,34 +3334,34 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="C63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="7">
+        <v>8</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="7">
-        <v>8</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I63" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -3378,34 +3375,34 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="C64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="7">
+        <v>8</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="7">
-        <v>8</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I64" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -3419,34 +3416,34 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="C65" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="7">
+        <v>8</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="7">
-        <v>8</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I65" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -3460,34 +3457,34 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="C66" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="7">
+        <v>8</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="7">
-        <v>8</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I66" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -3501,10 +3498,10 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>8</v>
@@ -3513,7 +3510,7 @@
         <v>12</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F67" s="7">
         <v>9</v>
@@ -3522,13 +3519,13 @@
         <v>10</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K67" s="15">
         <v>2</v>
@@ -3542,34 +3539,34 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="C68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="7">
+        <v>10</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="7">
-        <v>10</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I68" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K68" s="15">
         <v>2</v>
@@ -3583,34 +3580,34 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="C69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="7">
+        <v>10</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" s="7">
-        <v>10</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I69" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -3624,34 +3621,34 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="C70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="7">
+        <v>10</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="7">
-        <v>10</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I70" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K70" s="15">
         <v>2</v>
@@ -3665,34 +3662,34 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="C71" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="7">
+        <v>10</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="7">
-        <v>10</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I71" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K71" s="15">
         <v>2</v>
@@ -3706,34 +3703,34 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="C72" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="7">
+        <v>10</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="7">
-        <v>10</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I72" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -3747,34 +3744,34 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="C73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="7">
+        <v>10</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73" s="7">
-        <v>10</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I73" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -3788,34 +3785,34 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="C74" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="7">
+        <v>10</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="7">
-        <v>10</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I74" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K74">
         <v>2</v>
@@ -3829,34 +3826,34 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="C75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="7">
+        <v>10</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="7">
-        <v>10</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I75" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -3870,34 +3867,34 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="C76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="7">
+        <v>10</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="7">
-        <v>10</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I76" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -3911,34 +3908,34 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="C77" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="7">
+        <v>10</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="7">
-        <v>10</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I77" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -3952,34 +3949,34 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="C78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="7">
+        <v>10</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="7">
-        <v>10</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I78" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -3993,34 +3990,34 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="C79" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="7">
+        <v>10</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="7">
-        <v>10</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I79" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -4034,34 +4031,34 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="C80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="7">
+        <v>10</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="7">
-        <v>10</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I80" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -4075,34 +4072,34 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="C81" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="7">
+        <v>10</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="7">
-        <v>10</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I81" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -4116,34 +4113,34 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="C82" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="7">
+        <v>10</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" s="7">
-        <v>10</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I82" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -4157,34 +4154,34 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="C83" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="7">
+        <v>10</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="7">
-        <v>10</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I83" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -4198,34 +4195,34 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="C84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="7">
+        <v>10</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="7">
-        <v>10</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I84" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -4239,34 +4236,34 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="C85" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="7">
+        <v>10</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="7">
-        <v>10</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I85" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -4280,34 +4277,34 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="C86" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="7">
+        <v>10</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F86" s="7">
-        <v>10</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I86" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -4321,34 +4318,34 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="C87" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="7">
+        <v>10</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F87" s="7">
-        <v>10</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I87" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -4362,10 +4359,10 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>8</v>
@@ -4374,7 +4371,7 @@
         <v>13</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F88" s="7">
         <v>11</v>
@@ -4383,13 +4380,13 @@
         <v>10</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -4403,19 +4400,19 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C89" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F89" s="7">
         <v>12</v>
@@ -4424,13 +4421,13 @@
         <v>10</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K89">
         <v>2</v>
@@ -4444,19 +4441,19 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C90" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F90" s="7">
         <v>12</v>
@@ -4465,13 +4462,13 @@
         <v>10</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -4485,19 +4482,19 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C91" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F91" s="7">
         <v>12</v>
@@ -4506,13 +4503,13 @@
         <v>10</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K91">
         <v>2</v>
@@ -4526,19 +4523,19 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C92" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F92" s="7">
         <v>12</v>
@@ -4547,13 +4544,13 @@
         <v>10</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -4567,19 +4564,19 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C93" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F93" s="7">
         <v>12</v>
@@ -4588,13 +4585,13 @@
         <v>10</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K93">
         <v>2</v>
@@ -4608,19 +4605,19 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C94" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F94" s="7">
         <v>12</v>
@@ -4629,13 +4626,13 @@
         <v>10</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J94" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K94">
         <v>2</v>
@@ -4649,19 +4646,19 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C95" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F95" s="7">
         <v>12</v>
@@ -4670,13 +4667,13 @@
         <v>10</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J95" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -4690,19 +4687,19 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C96" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F96" s="7">
         <v>12</v>
@@ -4711,13 +4708,13 @@
         <v>10</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J96" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K96">
         <v>2</v>
@@ -4731,19 +4728,19 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C97" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F97" s="7">
         <v>12</v>
@@ -4752,13 +4749,13 @@
         <v>10</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J97" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K97">
         <v>2</v>
@@ -4772,19 +4769,19 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C98" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F98" s="7">
         <v>12</v>
@@ -4793,13 +4790,13 @@
         <v>10</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J98" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -4813,19 +4810,19 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C99" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F99" s="7">
         <v>12</v>
@@ -4834,13 +4831,13 @@
         <v>10</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J99" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K99">
         <v>2</v>
@@ -4854,19 +4851,19 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C100" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F100" s="7">
         <v>12</v>
@@ -4875,13 +4872,13 @@
         <v>10</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J100" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K100">
         <v>2</v>
@@ -4895,19 +4892,19 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C101" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F101" s="7">
         <v>12</v>
@@ -4916,13 +4913,13 @@
         <v>10</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J101" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K101">
         <v>2</v>
@@ -4936,19 +4933,19 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C102" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F102" s="7">
         <v>12</v>
@@ -4957,13 +4954,13 @@
         <v>10</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J102" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -4977,19 +4974,19 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C103" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F103" s="7">
         <v>12</v>
@@ -4998,13 +4995,13 @@
         <v>10</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J103" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K103">
         <v>2</v>
@@ -5018,19 +5015,19 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C104" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F104" s="7">
         <v>12</v>
@@ -5039,13 +5036,13 @@
         <v>10</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K104">
         <v>2</v>
@@ -5059,19 +5056,19 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C105" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F105" s="7">
         <v>12</v>
@@ -5080,13 +5077,13 @@
         <v>10</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J105" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -5100,19 +5097,19 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C106" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F106" s="7">
         <v>12</v>
@@ -5121,13 +5118,13 @@
         <v>10</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J106" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K106">
         <v>2</v>
@@ -5141,19 +5138,19 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C107" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F107" s="7">
         <v>12</v>
@@ -5162,13 +5159,13 @@
         <v>10</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J107" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K107">
         <v>2</v>
@@ -5182,19 +5179,19 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C108" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F108" s="7">
         <v>12</v>
@@ -5203,13 +5200,13 @@
         <v>10</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J108" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K108">
         <v>2</v>
@@ -5223,10 +5220,10 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>8</v>
@@ -5235,7 +5232,7 @@
         <v>12</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F109" s="7">
         <v>13</v>
@@ -5244,13 +5241,13 @@
         <v>10</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J109" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K109">
         <v>2</v>
@@ -5264,19 +5261,19 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C110" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F110" s="7">
         <v>14</v>
@@ -5285,13 +5282,13 @@
         <v>10</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J110" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K110">
         <v>2</v>
@@ -5305,19 +5302,19 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C111" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F111" s="7">
         <v>14</v>
@@ -5326,13 +5323,13 @@
         <v>10</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J111" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K111">
         <v>2</v>
@@ -5346,19 +5343,19 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B112" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C112" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F112" s="7">
         <v>14</v>
@@ -5367,13 +5364,13 @@
         <v>10</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J112" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -5387,19 +5384,19 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B113" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C113" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F113" s="7">
         <v>14</v>
@@ -5408,13 +5405,13 @@
         <v>10</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J113" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K113">
         <v>2</v>
@@ -5428,19 +5425,19 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C114" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F114" s="7">
         <v>14</v>
@@ -5449,13 +5446,13 @@
         <v>10</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J114" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -5469,19 +5466,19 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C115" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F115" s="7">
         <v>14</v>
@@ -5490,13 +5487,13 @@
         <v>10</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J115" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K115">
         <v>2</v>
@@ -5510,19 +5507,19 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C116" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F116" s="7">
         <v>14</v>
@@ -5531,13 +5528,13 @@
         <v>10</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J116" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K116">
         <v>2</v>
@@ -5551,19 +5548,19 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C117" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F117" s="7">
         <v>14</v>
@@ -5572,13 +5569,13 @@
         <v>10</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J117" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -5592,19 +5589,19 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C118" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F118" s="7">
         <v>14</v>
@@ -5613,13 +5610,13 @@
         <v>10</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J118" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K118">
         <v>2</v>
@@ -5633,19 +5630,19 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B119" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C119" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F119" s="7">
         <v>14</v>
@@ -5654,13 +5651,13 @@
         <v>10</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J119" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K119">
         <v>2</v>
@@ -5674,19 +5671,19 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B120" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C120" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F120" s="7">
         <v>14</v>
@@ -5695,13 +5692,13 @@
         <v>10</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J120" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K120">
         <v>2</v>
@@ -5715,19 +5712,19 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B121" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C121" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F121" s="7">
         <v>14</v>
@@ -5736,13 +5733,13 @@
         <v>10</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J121" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -5756,19 +5753,19 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C122" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F122" s="7">
         <v>14</v>
@@ -5777,13 +5774,13 @@
         <v>10</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J122" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K122">
         <v>2</v>
@@ -5797,19 +5794,19 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C123" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F123" s="7">
         <v>14</v>
@@ -5818,13 +5815,13 @@
         <v>10</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J123" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K123">
         <v>2</v>
@@ -5838,19 +5835,19 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C124" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F124" s="7">
         <v>14</v>
@@ -5859,13 +5856,13 @@
         <v>10</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J124" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K124">
         <v>2</v>
@@ -5879,19 +5876,19 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C125" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F125" s="7">
         <v>14</v>
@@ -5900,13 +5897,13 @@
         <v>10</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J125" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K125">
         <v>2</v>
@@ -5920,19 +5917,19 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B126" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C126" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F126" s="7">
         <v>14</v>
@@ -5941,13 +5938,13 @@
         <v>10</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J126" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K126">
         <v>2</v>
@@ -5961,19 +5958,19 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C127" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F127" s="7">
         <v>14</v>
@@ -5982,13 +5979,13 @@
         <v>10</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J127" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K127">
         <v>2</v>
@@ -6002,19 +5999,19 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C128" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F128" s="7">
         <v>14</v>
@@ -6023,13 +6020,13 @@
         <v>10</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J128" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K128">
         <v>2</v>
@@ -6043,19 +6040,19 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B129" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C129" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F129" s="7">
         <v>14</v>
@@ -6064,13 +6061,13 @@
         <v>10</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J129" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -6084,10 +6081,10 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>8</v>
@@ -6096,7 +6093,7 @@
         <v>13</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F130" s="7">
         <v>15</v>
@@ -6105,13 +6102,13 @@
         <v>10</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J130" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K130">
         <v>2</v>
@@ -6125,19 +6122,19 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F131" s="7">
         <v>16</v>
@@ -6146,13 +6143,13 @@
         <v>10</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J131" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K131">
         <v>2</v>
@@ -6166,19 +6163,19 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F132" s="7">
         <v>16</v>
@@ -6187,13 +6184,13 @@
         <v>10</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J132" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K132">
         <v>2</v>
@@ -6207,19 +6204,19 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F133" s="7">
         <v>16</v>
@@ -6228,13 +6225,13 @@
         <v>10</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J133" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K133">
         <v>2</v>
@@ -6248,19 +6245,19 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F134" s="7">
         <v>16</v>
@@ -6269,13 +6266,13 @@
         <v>10</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J134" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K134">
         <v>2</v>
@@ -6289,19 +6286,19 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F135" s="7">
         <v>16</v>
@@ -6310,13 +6307,13 @@
         <v>10</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J135" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K135">
         <v>2</v>
@@ -6330,19 +6327,19 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F136" s="7">
         <v>16</v>
@@ -6351,13 +6348,13 @@
         <v>10</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J136" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K136">
         <v>2</v>
@@ -6371,19 +6368,19 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F137" s="7">
         <v>16</v>
@@ -6392,13 +6389,13 @@
         <v>10</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J137" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K137">
         <v>2</v>
@@ -6412,19 +6409,19 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F138" s="7">
         <v>16</v>
@@ -6433,13 +6430,13 @@
         <v>10</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J138" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K138">
         <v>2</v>
@@ -6453,19 +6450,19 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F139" s="7">
         <v>16</v>
@@ -6474,13 +6471,13 @@
         <v>10</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J139" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K139">
         <v>2</v>
@@ -6494,19 +6491,19 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F140" s="7">
         <v>16</v>
@@ -6515,13 +6512,13 @@
         <v>10</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J140" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K140">
         <v>2</v>
@@ -6535,19 +6532,19 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F141" s="7">
         <v>16</v>
@@ -6556,13 +6553,13 @@
         <v>10</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J141" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K141">
         <v>2</v>
@@ -6576,19 +6573,19 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F142" s="7">
         <v>16</v>
@@ -6597,13 +6594,13 @@
         <v>10</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J142" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K142">
         <v>2</v>
@@ -6617,19 +6614,19 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F143" s="7">
         <v>16</v>
@@ -6638,13 +6635,13 @@
         <v>10</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J143" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K143">
         <v>2</v>
@@ -6658,19 +6655,19 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F144" s="7">
         <v>16</v>
@@ -6679,13 +6676,13 @@
         <v>10</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J144" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K144">
         <v>2</v>
@@ -6699,19 +6696,19 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F145" s="7">
         <v>16</v>
@@ -6720,13 +6717,13 @@
         <v>10</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J145" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K145">
         <v>2</v>
@@ -6740,19 +6737,19 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F146" s="7">
         <v>16</v>
@@ -6761,13 +6758,13 @@
         <v>10</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J146" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K146">
         <v>2</v>
@@ -6781,19 +6778,19 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F147" s="7">
         <v>16</v>
@@ -6802,13 +6799,13 @@
         <v>10</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J147" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K147">
         <v>2</v>
@@ -6822,19 +6819,19 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F148" s="7">
         <v>16</v>
@@ -6843,13 +6840,13 @@
         <v>10</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J148" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K148">
         <v>2</v>
@@ -6863,19 +6860,19 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F149" s="7">
         <v>16</v>
@@ -6884,13 +6881,13 @@
         <v>10</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J149" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K149">
         <v>2</v>
@@ -6904,19 +6901,19 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F150" s="7">
         <v>16</v>
@@ -6925,13 +6922,13 @@
         <v>10</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J150" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K150">
         <v>2</v>
@@ -6945,10 +6942,10 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>8</v>
@@ -6957,7 +6954,7 @@
         <v>12</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F151" s="7">
         <v>17</v>
@@ -6966,13 +6963,13 @@
         <v>10</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J151" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K151">
         <v>2</v>
@@ -6986,19 +6983,19 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F152" s="7">
         <v>18</v>
@@ -7007,13 +7004,13 @@
         <v>10</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J152" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K152">
         <v>2</v>
@@ -7027,19 +7024,19 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F153" s="7">
         <v>18</v>
@@ -7048,13 +7045,13 @@
         <v>10</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J153" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K153">
         <v>2</v>
@@ -7068,19 +7065,19 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F154" s="7">
         <v>18</v>
@@ -7089,13 +7086,13 @@
         <v>10</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J154" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K154">
         <v>2</v>
@@ -7109,19 +7106,19 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F155" s="7">
         <v>18</v>
@@ -7130,13 +7127,13 @@
         <v>10</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J155" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K155">
         <v>2</v>
@@ -7150,19 +7147,19 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F156" s="7">
         <v>18</v>
@@ -7171,13 +7168,13 @@
         <v>10</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J156" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K156">
         <v>2</v>
@@ -7191,19 +7188,19 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F157" s="7">
         <v>18</v>
@@ -7212,13 +7209,13 @@
         <v>10</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J157" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K157">
         <v>2</v>
@@ -7232,19 +7229,19 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F158" s="7">
         <v>18</v>
@@ -7253,13 +7250,13 @@
         <v>10</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J158" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K158">
         <v>2</v>
@@ -7273,19 +7270,19 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F159" s="7">
         <v>18</v>
@@ -7294,13 +7291,13 @@
         <v>10</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J159" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K159">
         <v>2</v>
@@ -7314,19 +7311,19 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F160" s="7">
         <v>18</v>
@@ -7335,13 +7332,13 @@
         <v>10</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J160" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K160">
         <v>2</v>
@@ -7355,19 +7352,19 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F161" s="7">
         <v>18</v>
@@ -7376,13 +7373,13 @@
         <v>10</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J161" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K161">
         <v>2</v>
@@ -7396,19 +7393,19 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F162" s="7">
         <v>18</v>
@@ -7417,13 +7414,13 @@
         <v>10</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J162" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K162">
         <v>2</v>
@@ -7437,19 +7434,19 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F163" s="7">
         <v>18</v>
@@ -7458,13 +7455,13 @@
         <v>10</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J163" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K163">
         <v>2</v>
@@ -7478,19 +7475,19 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F164" s="7">
         <v>18</v>
@@ -7499,13 +7496,13 @@
         <v>10</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J164" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K164">
         <v>2</v>
@@ -7519,19 +7516,19 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F165" s="7">
         <v>18</v>
@@ -7540,13 +7537,13 @@
         <v>10</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J165" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K165">
         <v>2</v>
@@ -7560,19 +7557,19 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F166" s="7">
         <v>18</v>
@@ -7581,13 +7578,13 @@
         <v>10</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J166" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K166">
         <v>2</v>
@@ -7601,19 +7598,19 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F167" s="7">
         <v>18</v>
@@ -7622,13 +7619,13 @@
         <v>10</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J167" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K167">
         <v>2</v>
@@ -7642,19 +7639,19 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F168" s="7">
         <v>18</v>
@@ -7663,13 +7660,13 @@
         <v>10</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J168" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K168">
         <v>2</v>
@@ -7683,19 +7680,19 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F169" s="7">
         <v>18</v>
@@ -7704,13 +7701,13 @@
         <v>10</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I169" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J169" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K169">
         <v>2</v>
@@ -7724,19 +7721,19 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F170" s="7">
         <v>18</v>
@@ -7745,13 +7742,13 @@
         <v>10</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J170" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -7765,19 +7762,19 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F171" s="7">
         <v>18</v>
@@ -7786,13 +7783,13 @@
         <v>10</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J171" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K171">
         <v>2</v>
@@ -7809,7 +7806,7 @@
         <v>14</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>8</v>
@@ -7818,22 +7815,22 @@
         <v>9</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F172" s="7">
         <v>19</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J172" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K172">
         <v>2</v>
@@ -7850,34 +7847,34 @@
         <v>14</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F173" s="7">
         <v>20</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J173" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K173" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L173">
         <v>999</v>
@@ -7891,34 +7888,34 @@
         <v>14</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F174" s="7">
         <v>21</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J174" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K174" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L174">
         <v>999</v>
@@ -7932,34 +7929,34 @@
         <v>14</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C175" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D175" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="E175" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="E175" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="F175" s="7">
         <v>22</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I175" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J175" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K175" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="K175" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="L175">
         <v>999</v>
@@ -7973,34 +7970,34 @@
         <v>14</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F176" s="7">
         <v>23</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J176" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K176" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="K176" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="L176">
         <v>999</v>
@@ -8023,7 +8020,7 @@
         <v>9</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F177" s="7">
         <v>24</v>
@@ -8032,13 +8029,13 @@
         <v>10</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I177" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J177" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K177" s="15">
         <v>2</v>
@@ -8064,7 +8061,7 @@
         <v>13</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F178" s="7">
         <v>25</v>
@@ -8073,13 +8070,13 @@
         <v>10</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J178" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K178">
         <v>2</v>
@@ -8102,10 +8099,10 @@
         <v>8</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F179" s="7">
         <v>25</v>
@@ -8114,13 +8111,13 @@
         <v>10</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J179" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K179">
         <v>2</v>
@@ -8143,10 +8140,10 @@
         <v>8</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F180" s="7">
         <v>25</v>
@@ -8155,13 +8152,13 @@
         <v>10</v>
       </c>
       <c r="H180" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J180" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K180">
         <v>2</v>
@@ -8184,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F181" s="7">
         <v>25</v>
@@ -8196,13 +8193,13 @@
         <v>10</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I181" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J181" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K181">
         <v>2</v>
@@ -8225,10 +8222,10 @@
         <v>8</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F182" s="7">
         <v>25</v>
@@ -8237,13 +8234,13 @@
         <v>10</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I182" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J182" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K182">
         <v>2</v>
@@ -8266,10 +8263,10 @@
         <v>8</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F183" s="7">
         <v>25</v>
@@ -8278,13 +8275,13 @@
         <v>10</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I183" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J183" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K183">
         <v>2</v>
@@ -8307,10 +8304,10 @@
         <v>8</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F184" s="7">
         <v>25</v>
@@ -8319,13 +8316,13 @@
         <v>10</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J184" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K184">
         <v>2</v>
@@ -8348,10 +8345,10 @@
         <v>8</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F185" s="7">
         <v>25</v>
@@ -8360,13 +8357,13 @@
         <v>10</v>
       </c>
       <c r="H185" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J185" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K185">
         <v>2</v>
@@ -8389,10 +8386,10 @@
         <v>8</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F186" s="7">
         <v>25</v>
@@ -8401,13 +8398,13 @@
         <v>10</v>
       </c>
       <c r="H186" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J186" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K186">
         <v>2</v>
@@ -8430,10 +8427,10 @@
         <v>8</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F187" s="7">
         <v>25</v>
@@ -8442,13 +8439,13 @@
         <v>10</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J187" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K187">
         <v>2</v>
@@ -8471,10 +8468,10 @@
         <v>8</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F188" s="7">
         <v>25</v>
@@ -8483,13 +8480,13 @@
         <v>10</v>
       </c>
       <c r="H188" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J188" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K188">
         <v>2</v>
@@ -8512,10 +8509,10 @@
         <v>8</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F189" s="7">
         <v>25</v>
@@ -8524,13 +8521,13 @@
         <v>10</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J189" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -8553,10 +8550,10 @@
         <v>8</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F190" s="7">
         <v>25</v>
@@ -8565,13 +8562,13 @@
         <v>10</v>
       </c>
       <c r="H190" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J190" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K190">
         <v>2</v>
@@ -8594,10 +8591,10 @@
         <v>8</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F191" s="7">
         <v>25</v>
@@ -8606,13 +8603,13 @@
         <v>10</v>
       </c>
       <c r="H191" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J191" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -8635,10 +8632,10 @@
         <v>8</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F192" s="7">
         <v>25</v>
@@ -8647,13 +8644,13 @@
         <v>10</v>
       </c>
       <c r="H192" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J192" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K192">
         <v>2</v>
@@ -8676,10 +8673,10 @@
         <v>8</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F193" s="7">
         <v>25</v>
@@ -8688,13 +8685,13 @@
         <v>10</v>
       </c>
       <c r="H193" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J193" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -8717,10 +8714,10 @@
         <v>8</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F194" s="7">
         <v>25</v>
@@ -8729,13 +8726,13 @@
         <v>10</v>
       </c>
       <c r="H194" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J194" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K194">
         <v>2</v>
@@ -8758,10 +8755,10 @@
         <v>8</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F195" s="7">
         <v>25</v>
@@ -8770,13 +8767,13 @@
         <v>10</v>
       </c>
       <c r="H195" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J195" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K195">
         <v>2</v>
@@ -8799,10 +8796,10 @@
         <v>8</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F196" s="7">
         <v>25</v>
@@ -8811,13 +8808,13 @@
         <v>10</v>
       </c>
       <c r="H196" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J196" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K196">
         <v>2</v>
@@ -8840,10 +8837,10 @@
         <v>8</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F197" s="7">
         <v>25</v>
@@ -8852,13 +8849,13 @@
         <v>10</v>
       </c>
       <c r="H197" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J197" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K197">
         <v>2</v>
@@ -8881,10 +8878,10 @@
         <v>8</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F198" s="7">
         <v>25</v>
@@ -8893,13 +8890,13 @@
         <v>10</v>
       </c>
       <c r="H198" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J198" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K198">
         <v>2</v>
@@ -8925,7 +8922,7 @@
         <v>12</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F199" s="7">
         <v>26</v>
@@ -8934,13 +8931,13 @@
         <v>10</v>
       </c>
       <c r="H199" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J199" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K199">
         <v>2</v>
@@ -8963,10 +8960,10 @@
         <v>8</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F200" s="7">
         <v>27</v>
@@ -8975,13 +8972,13 @@
         <v>10</v>
       </c>
       <c r="H200" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J200" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K200">
         <v>2</v>
@@ -9004,10 +9001,10 @@
         <v>8</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F201" s="7">
         <v>27</v>
@@ -9016,13 +9013,13 @@
         <v>10</v>
       </c>
       <c r="H201" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J201" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K201">
         <v>2</v>
@@ -9045,10 +9042,10 @@
         <v>8</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F202" s="7">
         <v>27</v>
@@ -9057,13 +9054,13 @@
         <v>10</v>
       </c>
       <c r="H202" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J202" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K202">
         <v>2</v>
@@ -9086,10 +9083,10 @@
         <v>8</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F203" s="7">
         <v>27</v>
@@ -9098,13 +9095,13 @@
         <v>10</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J203" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K203">
         <v>2</v>
@@ -9127,10 +9124,10 @@
         <v>8</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F204" s="7">
         <v>27</v>
@@ -9139,13 +9136,13 @@
         <v>10</v>
       </c>
       <c r="H204" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I204" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J204" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K204">
         <v>2</v>
@@ -9168,10 +9165,10 @@
         <v>8</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F205" s="7">
         <v>27</v>
@@ -9180,13 +9177,13 @@
         <v>10</v>
       </c>
       <c r="H205" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J205" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K205">
         <v>2</v>
@@ -9209,10 +9206,10 @@
         <v>8</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F206" s="7">
         <v>27</v>
@@ -9221,13 +9218,13 @@
         <v>10</v>
       </c>
       <c r="H206" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J206" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K206">
         <v>2</v>
@@ -9250,10 +9247,10 @@
         <v>8</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F207" s="7">
         <v>27</v>
@@ -9262,13 +9259,13 @@
         <v>10</v>
       </c>
       <c r="H207" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I207" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J207" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K207">
         <v>2</v>
@@ -9291,10 +9288,10 @@
         <v>8</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F208" s="7">
         <v>27</v>
@@ -9303,13 +9300,13 @@
         <v>10</v>
       </c>
       <c r="H208" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J208" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K208">
         <v>2</v>
@@ -9332,10 +9329,10 @@
         <v>8</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F209" s="7">
         <v>27</v>
@@ -9344,13 +9341,13 @@
         <v>10</v>
       </c>
       <c r="H209" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J209" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K209">
         <v>2</v>
@@ -9373,10 +9370,10 @@
         <v>8</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F210" s="7">
         <v>27</v>
@@ -9385,13 +9382,13 @@
         <v>10</v>
       </c>
       <c r="H210" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J210" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K210">
         <v>2</v>
@@ -9414,10 +9411,10 @@
         <v>8</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F211" s="7">
         <v>27</v>
@@ -9426,13 +9423,13 @@
         <v>10</v>
       </c>
       <c r="H211" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J211" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K211">
         <v>2</v>
@@ -9455,10 +9452,10 @@
         <v>8</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F212" s="7">
         <v>27</v>
@@ -9467,13 +9464,13 @@
         <v>10</v>
       </c>
       <c r="H212" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J212" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K212">
         <v>2</v>
@@ -9496,10 +9493,10 @@
         <v>8</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F213" s="7">
         <v>27</v>
@@ -9508,13 +9505,13 @@
         <v>10</v>
       </c>
       <c r="H213" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J213" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K213">
         <v>2</v>
@@ -9537,10 +9534,10 @@
         <v>8</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F214" s="7">
         <v>27</v>
@@ -9549,13 +9546,13 @@
         <v>10</v>
       </c>
       <c r="H214" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J214" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K214">
         <v>2</v>
@@ -9578,10 +9575,10 @@
         <v>8</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F215" s="7">
         <v>27</v>
@@ -9590,13 +9587,13 @@
         <v>10</v>
       </c>
       <c r="H215" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J215" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K215">
         <v>2</v>
@@ -9619,10 +9616,10 @@
         <v>8</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F216" s="7">
         <v>27</v>
@@ -9631,13 +9628,13 @@
         <v>10</v>
       </c>
       <c r="H216" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J216" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K216">
         <v>2</v>
@@ -9660,10 +9657,10 @@
         <v>8</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F217" s="7">
         <v>27</v>
@@ -9672,13 +9669,13 @@
         <v>10</v>
       </c>
       <c r="H217" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J217" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K217">
         <v>2</v>
@@ -9701,10 +9698,10 @@
         <v>8</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F218" s="7">
         <v>27</v>
@@ -9713,13 +9710,13 @@
         <v>10</v>
       </c>
       <c r="H218" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J218" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K218">
         <v>2</v>
@@ -9742,10 +9739,10 @@
         <v>8</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F219" s="7">
         <v>27</v>
@@ -9754,13 +9751,13 @@
         <v>10</v>
       </c>
       <c r="H219" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J219" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K219">
         <v>2</v>
@@ -9780,13 +9777,13 @@
         <v>15</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F220" s="7">
         <v>28</v>
@@ -9795,16 +9792,16 @@
         <v>10</v>
       </c>
       <c r="H220" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I220" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J220" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K220" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L220">
         <v>999</v>
@@ -9821,13 +9818,13 @@
         <v>15</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F221" s="7">
         <v>29</v>
@@ -9836,16 +9833,16 @@
         <v>10</v>
       </c>
       <c r="H221" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I221" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J221" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K221" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L221">
         <v>999</v>
@@ -9862,13 +9859,13 @@
         <v>15</v>
       </c>
       <c r="C222" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D222" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D222" s="9" t="s">
+      <c r="E222" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="E222" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="F222" s="7">
         <v>30</v>
@@ -9877,16 +9874,16 @@
         <v>10</v>
       </c>
       <c r="H222" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I222" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J222" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K222" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="K222" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="L222">
         <v>999</v>
@@ -9903,13 +9900,13 @@
         <v>15</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F223" s="7">
         <v>31</v>
@@ -9918,17 +9915,17 @@
         <v>10</v>
       </c>
       <c r="H223" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I223" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J223" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K223" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K223" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="L223">
         <v>999</v>
       </c>
@@ -9937,7 +9934,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1"/>
+  <autoFilter ref="A1:M223"/>
   <sortState ref="A2:M223">
     <sortCondition ref="A2:A223"/>
     <sortCondition ref="B2:B223"/>

--- a/input/params_special.xlsx
+++ b/input/params_special.xlsx
@@ -770,7 +770,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input/params_special.xlsx
+++ b/input/params_special.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$27</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="62">
   <si>
     <t>emi_master</t>
   </si>
@@ -200,6 +200,21 @@
   </si>
   <si>
     <t>COMP_MIN_THICKNESS</t>
+  </si>
+  <si>
+    <t>COAT_MIN_THICKNESS</t>
+  </si>
+  <si>
+    <t>COAT_MAX_THICKNESS</t>
+  </si>
+  <si>
+    <t>PP_CM_IPT_W</t>
+  </si>
+  <si>
+    <t>COMP_MEAN_WEIGHT</t>
+  </si>
+  <si>
+    <t>COAT_MEAN_WEIGHT</t>
   </si>
 </sst>
 </file>
@@ -670,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1402,16 +1417,16 @@
         <v>8</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G18" s="6">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>10</v>
@@ -1420,7 +1435,7 @@
         <v>16</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K18" s="4">
         <v>2</v>
@@ -1433,26 +1448,26 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>12</v>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G19" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>10</v>
@@ -1460,11 +1475,11 @@
       <c r="I19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="4">
-        <v>2</v>
+      <c r="J19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="L19" s="4">
         <v>999</v>
@@ -1484,16 +1499,16 @@
         <v>26</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G20" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>10</v>
@@ -1525,16 +1540,16 @@
         <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G21" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>10</v>
@@ -1542,8 +1557,8 @@
       <c r="I21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>38</v>
+      <c r="J21" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>40</v>
@@ -1566,16 +1581,16 @@
         <v>26</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G22" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>10</v>
@@ -1597,26 +1612,26 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>49</v>
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G23" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>10</v>
@@ -1625,20 +1640,188 @@
         <v>16</v>
       </c>
       <c r="J23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2</v>
+      </c>
+      <c r="L23" s="4">
+        <v>999</v>
+      </c>
+      <c r="M23" s="4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="6">
+        <v>3</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" s="4">
-        <v>999</v>
-      </c>
-      <c r="M23" s="4">
+      <c r="K24" s="4">
+        <v>2</v>
+      </c>
+      <c r="L24" s="4">
+        <v>999</v>
+      </c>
+      <c r="M24" s="4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="6">
+        <v>5</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2</v>
+      </c>
+      <c r="L25" s="4">
+        <v>999</v>
+      </c>
+      <c r="M25" s="4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="6">
+        <v>8</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="4">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4">
+        <v>999</v>
+      </c>
+      <c r="M26" s="4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="6">
+        <v>10</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2</v>
+      </c>
+      <c r="L27" s="4">
+        <v>999</v>
+      </c>
+      <c r="M27" s="4">
         <v>999</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M23"/>
+  <autoFilter ref="A1:M27">
+    <sortState ref="A2:M23">
+      <sortCondition ref="G1:G23"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:N223">
     <sortCondition ref="A2:A223"/>
     <sortCondition ref="B2:B223"/>

--- a/input/params_special.xlsx
+++ b/input/params_special.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$27</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="60">
   <si>
     <t>emi_master</t>
   </si>
@@ -152,12 +152,6 @@
   </si>
   <si>
     <t>ss</t>
-  </si>
-  <si>
-    <t>range_min</t>
-  </si>
-  <si>
-    <t>range_max</t>
   </si>
   <si>
     <t>EMI_0701</t>
@@ -685,11 +679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,12 +698,10 @@
     <col min="8" max="9" width="15.28515625" style="7" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" style="4" customWidth="1"/>
     <col min="11" max="11" width="19" style="4" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" style="4" customWidth="1"/>
-    <col min="14" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="12" max="1023" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -723,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>25</v>
@@ -743,14 +735,8 @@
       <c r="K1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -784,14 +770,8 @@
       <c r="K2" s="4">
         <v>2</v>
       </c>
-      <c r="L2" s="4">
-        <v>999</v>
-      </c>
-      <c r="M2" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -808,7 +788,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G3" s="6">
         <v>2</v>
@@ -825,14 +805,8 @@
       <c r="K3" s="4">
         <v>2</v>
       </c>
-      <c r="L3" s="4">
-        <v>999</v>
-      </c>
-      <c r="M3" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -849,7 +823,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="6">
         <v>4</v>
@@ -866,14 +840,8 @@
       <c r="K4" s="4">
         <v>2</v>
       </c>
-      <c r="L4" s="4">
-        <v>999</v>
-      </c>
-      <c r="M4" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -907,14 +875,8 @@
       <c r="K5" s="4">
         <v>2</v>
       </c>
-      <c r="L5" s="4">
-        <v>999</v>
-      </c>
-      <c r="M5" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
@@ -931,7 +893,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G6" s="6">
         <v>7</v>
@@ -948,14 +910,8 @@
       <c r="K6" s="4">
         <v>2</v>
       </c>
-      <c r="L6" s="4">
-        <v>999</v>
-      </c>
-      <c r="M6" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
@@ -972,7 +928,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" s="6">
         <v>9</v>
@@ -989,19 +945,13 @@
       <c r="K7" s="4">
         <v>2</v>
       </c>
-      <c r="L7" s="4">
-        <v>999</v>
-      </c>
-      <c r="M7" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>8</v>
@@ -1013,7 +963,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G8" s="6">
         <v>11</v>
@@ -1022,7 +972,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>38</v>
@@ -1030,19 +980,13 @@
       <c r="K8" s="4">
         <v>2</v>
       </c>
-      <c r="L8" s="4">
-        <v>999</v>
-      </c>
-      <c r="M8" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>8</v>
@@ -1054,7 +998,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" s="6">
         <v>13</v>
@@ -1063,7 +1007,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>39</v>
@@ -1071,19 +1015,13 @@
       <c r="K9" s="4">
         <v>2</v>
       </c>
-      <c r="L9" s="4">
-        <v>999</v>
-      </c>
-      <c r="M9" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1095,7 +1033,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10" s="6">
         <v>15</v>
@@ -1104,7 +1042,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>38</v>
@@ -1112,19 +1050,13 @@
       <c r="K10" s="4">
         <v>2</v>
       </c>
-      <c r="L10" s="4">
-        <v>999</v>
-      </c>
-      <c r="M10" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>8</v>
@@ -1136,7 +1068,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" s="6">
         <v>17</v>
@@ -1145,7 +1077,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>39</v>
@@ -1153,14 +1085,8 @@
       <c r="K11" s="4">
         <v>2</v>
       </c>
-      <c r="L11" s="4">
-        <v>999</v>
-      </c>
-      <c r="M11" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
@@ -1194,14 +1120,8 @@
       <c r="K12" s="4">
         <v>2</v>
       </c>
-      <c r="L12" s="4">
-        <v>999</v>
-      </c>
-      <c r="M12" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
@@ -1235,14 +1155,8 @@
       <c r="K13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="4">
-        <v>999</v>
-      </c>
-      <c r="M13" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
@@ -1253,13 +1167,13 @@
         <v>26</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G14" s="6">
         <v>21</v>
@@ -1276,14 +1190,8 @@
       <c r="K14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="4">
-        <v>999</v>
-      </c>
-      <c r="M14" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
@@ -1317,14 +1225,8 @@
       <c r="K15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="4">
-        <v>999</v>
-      </c>
-      <c r="M15" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
@@ -1335,13 +1237,13 @@
         <v>26</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G16" s="6">
         <v>23</v>
@@ -1358,14 +1260,8 @@
       <c r="K16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="4">
-        <v>999</v>
-      </c>
-      <c r="M16" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1399,14 +1295,8 @@
       <c r="K17" s="4">
         <v>2</v>
       </c>
-      <c r="L17" s="4">
-        <v>999</v>
-      </c>
-      <c r="M17" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
@@ -1423,7 +1313,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G18" s="6">
         <v>26</v>
@@ -1440,14 +1330,8 @@
       <c r="K18" s="4">
         <v>2</v>
       </c>
-      <c r="L18" s="4">
-        <v>999</v>
-      </c>
-      <c r="M18" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>14</v>
       </c>
@@ -1481,14 +1365,8 @@
       <c r="K19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="4">
-        <v>999</v>
-      </c>
-      <c r="M19" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
@@ -1499,13 +1377,13 @@
         <v>26</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G20" s="6">
         <v>29</v>
@@ -1522,14 +1400,8 @@
       <c r="K20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="4">
-        <v>999</v>
-      </c>
-      <c r="M20" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>14</v>
       </c>
@@ -1563,14 +1435,8 @@
       <c r="K21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="4">
-        <v>999</v>
-      </c>
-      <c r="M21" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>14</v>
       </c>
@@ -1581,13 +1447,13 @@
         <v>26</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G22" s="6">
         <v>31</v>
@@ -1604,14 +1470,8 @@
       <c r="K22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="4">
-        <v>999</v>
-      </c>
-      <c r="M22" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
@@ -1628,7 +1488,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G23" s="6">
         <v>32</v>
@@ -1645,14 +1505,8 @@
       <c r="K23" s="4">
         <v>2</v>
       </c>
-      <c r="L23" s="4">
-        <v>999</v>
-      </c>
-      <c r="M23" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>14</v>
       </c>
@@ -1669,7 +1523,7 @@
         <v>18</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G24" s="6">
         <v>3</v>
@@ -1686,14 +1540,8 @@
       <c r="K24" s="4">
         <v>2</v>
       </c>
-      <c r="L24" s="4">
-        <v>999</v>
-      </c>
-      <c r="M24" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>14</v>
       </c>
@@ -1710,7 +1558,7 @@
         <v>18</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G25" s="6">
         <v>5</v>
@@ -1727,14 +1575,8 @@
       <c r="K25" s="4">
         <v>2</v>
       </c>
-      <c r="L25" s="4">
-        <v>999</v>
-      </c>
-      <c r="M25" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>14</v>
       </c>
@@ -1745,13 +1587,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G26" s="6">
         <v>8</v>
@@ -1768,14 +1610,8 @@
       <c r="K26" s="4">
         <v>2</v>
       </c>
-      <c r="L26" s="4">
-        <v>999</v>
-      </c>
-      <c r="M26" s="4">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>14</v>
       </c>
@@ -1786,13 +1622,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="G27" s="6">
         <v>10</v>
@@ -1809,15 +1645,9 @@
       <c r="K27" s="4">
         <v>2</v>
       </c>
-      <c r="L27" s="4">
-        <v>999</v>
-      </c>
-      <c r="M27" s="4">
-        <v>999</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M27">
+  <autoFilter ref="A1:K27">
     <sortState ref="A2:M23">
       <sortCondition ref="G1:G23"/>
     </sortState>

--- a/input/params_special.xlsx
+++ b/input/params_special.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work Projects\cpv\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sobczakk\OneDrive - Takeda\Documents\GIT REPOS\cpv\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_34C2B377663F4BAD935724B84C902A23CE857F24" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{AA532A82-CBCE-4979-9F26-0EA27E685061}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5235" windowWidth="23670" windowHeight="5565" tabRatio="500"/>
+    <workbookView xWindow="28980" yWindow="1950" windowWidth="26985" windowHeight="14190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$43</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="61">
   <si>
     <t>emi_master</t>
   </si>
@@ -209,12 +210,15 @@
   </si>
   <si>
     <t>COAT_MEAN_WEIGHT</t>
+  </si>
+  <si>
+    <t>Process instructions: Disintegration Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,6 +472,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -503,6 +524,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -678,12 +716,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,10 +846,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>8</v>
@@ -823,16 +861,16 @@
         <v>18</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>39</v>
@@ -843,34 +881,34 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="G5" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K5" s="4">
         <v>2</v>
@@ -878,10 +916,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
@@ -893,16 +931,16 @@
         <v>18</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G6" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>38</v>
@@ -922,16 +960,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="G7" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>10</v>
@@ -940,7 +978,7 @@
         <v>22</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K7" s="4">
         <v>2</v>
@@ -948,10 +986,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>8</v>
@@ -966,13 +1004,13 @@
         <v>53</v>
       </c>
       <c r="G8" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>38</v>
@@ -983,34 +1021,34 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G9" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K9" s="4">
         <v>2</v>
@@ -1018,34 +1056,34 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10" s="4">
         <v>2</v>
@@ -1053,34 +1091,34 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G11" s="6">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K11" s="4">
         <v>2</v>
@@ -1088,165 +1126,165 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="G12" s="6">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K12" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>14</v>
+      <c r="A13" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G13" s="6">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>14</v>
+      <c r="A14" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G14" s="6">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>40</v>
+      <c r="K14" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>14</v>
+      <c r="A15" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="6">
         <v>17</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="6">
-        <v>22</v>
-      </c>
       <c r="H15" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>40</v>
+      <c r="K15" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>47</v>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="G16" s="6">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>19</v>
@@ -1255,80 +1293,80 @@
         <v>16</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G17" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="4">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G18" s="6">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="4">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1336,31 +1374,31 @@
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" s="6">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>38</v>
+      <c r="J19" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>40</v>
@@ -1371,57 +1409,57 @@
         <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>38</v>
+      <c r="J20" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>27</v>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G21" s="6">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>10</v>
@@ -1430,33 +1468,33 @@
         <v>16</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="K21" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>47</v>
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G22" s="6">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>10</v>
@@ -1467,31 +1505,31 @@
       <c r="J22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>40</v>
+      <c r="K22" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>13</v>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G23" s="6">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>10</v>
@@ -1499,104 +1537,104 @@
       <c r="I23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="4">
-        <v>2</v>
+      <c r="K23" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G24" s="6">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="4">
-        <v>2</v>
+      <c r="J24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G25" s="6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K25" s="4">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>57</v>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G26" s="6">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>10</v>
@@ -1605,10 +1643,10 @@
         <v>16</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" s="4">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1616,43 +1654,603 @@
         <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G27" s="6">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K27" s="4">
         <v>2</v>
       </c>
     </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="6">
+        <v>33</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="6">
+        <v>34</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="6">
+        <v>35</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="6">
+        <v>36</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="6">
+        <v>37</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="6">
+        <v>38</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="6">
+        <v>39</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="6">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="6">
+        <v>41</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="6">
+        <v>42</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="6">
+        <v>43</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="6">
+        <v>44</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="6">
+        <v>45</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="6">
+        <v>46</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="6">
+        <v>47</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="6">
+        <v>48</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K27">
-    <sortState ref="A2:M23">
-      <sortCondition ref="G1:G23"/>
+  <autoFilter ref="A1:K43" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K27">
+      <sortCondition ref="G1:G27"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:N223">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N223">
     <sortCondition ref="A2:A223"/>
     <sortCondition ref="B2:B223"/>
     <sortCondition ref="C2:C223"/>
@@ -1664,7 +2262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -1680,7 +2278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>

--- a/input/params_special.xlsx
+++ b/input/params_special.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sobczakk\OneDrive - Takeda\Documents\GIT REPOS\cpv\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_34C2B377663F4BAD935724B84C902A23CE857F24" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{AA532A82-CBCE-4979-9F26-0EA27E685061}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="11_34C2B377663F4BAD935724B84C902A23CE857F24" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{5D8ADB74-CCB8-4C05-8623-A5A072A5A83B}"/>
   <bookViews>
-    <workbookView xWindow="28980" yWindow="1950" windowWidth="26985" windowHeight="14190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$58</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="80">
   <si>
     <t>emi_master</t>
   </si>
@@ -213,6 +213,63 @@
   </si>
   <si>
     <t>Process instructions: Disintegration Test</t>
+  </si>
+  <si>
+    <t>Weight/Thickness/Hardness IPTs: 50%</t>
+  </si>
+  <si>
+    <t>COMP_MEAN_WEIGHT_MIDDLE</t>
+  </si>
+  <si>
+    <t>COMP_MAX_THICKNESS_MIDDLE</t>
+  </si>
+  <si>
+    <t>COMP_MIN_THICKNESS_MIDDLE</t>
+  </si>
+  <si>
+    <t>PP_CM_IPT_W_%CV</t>
+  </si>
+  <si>
+    <t>COMP_MEAN_WEIGHT_CV_MIDDLE</t>
+  </si>
+  <si>
+    <t>COMP_AVG_HARDNESS_MIDDLE</t>
+  </si>
+  <si>
+    <t>Weight/Thickness/Hardness IPTs: 90%</t>
+  </si>
+  <si>
+    <t>COMP_MEAN_WEIGHT_END</t>
+  </si>
+  <si>
+    <t>COMP_MAX_THICKNESS_END</t>
+  </si>
+  <si>
+    <t>COMP_MIN_THICKNESS_END</t>
+  </si>
+  <si>
+    <t>COMP_MEAN_WEIGHT_CV_END</t>
+  </si>
+  <si>
+    <t>COMP_AVG_HARDNESS_END</t>
+  </si>
+  <si>
+    <t>Weight/Thickness/Hardness IPTs:1st TIC</t>
+  </si>
+  <si>
+    <t>COMP_MEAN_WEIGHT_START</t>
+  </si>
+  <si>
+    <t>COMP_MAX_THICKNESS_START</t>
+  </si>
+  <si>
+    <t>COMP_MIN_THICKNESS_START</t>
+  </si>
+  <si>
+    <t>COMP_MEAN_WEIGHT_CV_START</t>
+  </si>
+  <si>
+    <t>COMP_AVG_HARDNESS_START</t>
   </si>
 </sst>
 </file>
@@ -717,11 +774,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,26 +832,26 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G2" s="6">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>10</v>
@@ -803,33 +860,33 @@
         <v>11</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="4">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G3" s="6">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>10</v>
@@ -838,68 +895,68 @@
         <v>11</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="6">
+        <v>46</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="6">
-        <v>3</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="4">
-        <v>2</v>
+      <c r="K4" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G5" s="6">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>10</v>
@@ -907,244 +964,244 @@
       <c r="I5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="6">
+        <v>44</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="6">
-        <v>5</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6">
+        <v>43</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="6">
+        <v>42</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="6">
-        <v>6</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="6">
-        <v>7</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="6">
+        <v>41</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="6">
-        <v>8</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="4">
-        <v>2</v>
+      <c r="K9" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>20</v>
+      <c r="A10" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G10" s="6">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="4">
-        <v>2</v>
+      <c r="K10" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>14</v>
+      <c r="A11" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="G11" s="6">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="4">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G12" s="6">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>10</v>
@@ -1152,34 +1209,34 @@
       <c r="I12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="4">
-        <v>2</v>
+      <c r="K12" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G13" s="6">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>10</v>
@@ -1187,124 +1244,124 @@
       <c r="I13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="6">
+        <v>36</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="6">
-        <v>15</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="4">
-        <v>2</v>
+      <c r="K14" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>45</v>
+      <c r="A15" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G15" s="6">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="4">
-        <v>2</v>
+      <c r="K15" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>14</v>
+      <c r="A16" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G16" s="6">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="4">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
@@ -1316,18 +1373,18 @@
         <v>28</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" s="6">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>38</v>
       </c>
       <c r="K17" s="6" t="s">
@@ -1335,29 +1392,29 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G18" s="6">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>16</v>
@@ -1365,8 +1422,8 @@
       <c r="J18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>40</v>
+      <c r="K18" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1374,25 +1431,25 @@
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G19" s="6">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>16</v>
@@ -1409,25 +1466,25 @@
         <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G20" s="6">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>16</v>
@@ -1440,26 +1497,26 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>9</v>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G21" s="6">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>10</v>
@@ -1467,34 +1524,34 @@
       <c r="I21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="4">
-        <v>2</v>
+      <c r="J21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>12</v>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G22" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>10</v>
@@ -1502,34 +1559,34 @@
       <c r="I22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="4">
-        <v>2</v>
+      <c r="J22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="6">
         <v>26</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="6">
-        <v>28</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>10</v>
@@ -1537,34 +1594,34 @@
       <c r="I23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>40</v>
+      <c r="J23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>46</v>
+      <c r="C24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="G24" s="6">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>10</v>
@@ -1572,11 +1629,11 @@
       <c r="I24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>40</v>
+      <c r="J24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1584,25 +1641,25 @@
         <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G25" s="6">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>16</v>
@@ -1619,25 +1676,25 @@
         <v>14</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G26" s="6">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>16</v>
@@ -1650,29 +1707,29 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G27" s="6">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>16</v>
@@ -1680,16 +1737,16 @@
       <c r="J27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K27" s="4">
-        <v>2</v>
+      <c r="K27" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>26</v>
@@ -1701,18 +1758,18 @@
         <v>28</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" s="6">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>38</v>
       </c>
       <c r="K28" s="6" t="s">
@@ -1720,131 +1777,131 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>20</v>
+      <c r="A29" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G29" s="6">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>20</v>
+      <c r="A30" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G30" s="6">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>40</v>
+      <c r="K30" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>20</v>
+      <c r="A31" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G31" s="6">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="K31" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>29</v>
+      <c r="C32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="G32" s="6">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>10</v>
@@ -1852,34 +1909,34 @@
       <c r="I32" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>40</v>
+      <c r="J32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>46</v>
+      <c r="C33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G33" s="6">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>10</v>
@@ -1887,244 +1944,244 @@
       <c r="I33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="6" t="s">
-        <v>40</v>
+      <c r="K33" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>41</v>
+      <c r="A34" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="G34" s="6">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="K34" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>41</v>
+      <c r="A35" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G35" s="6">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K35" s="6" t="s">
-        <v>40</v>
+      <c r="K35" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>45</v>
+      <c r="A36" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G36" s="6">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="6">
+        <v>7</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" s="6">
-        <v>42</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J37" s="4" t="s">
+      <c r="K37" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="6">
+        <v>6</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="6">
+        <v>5</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K37" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="6">
-        <v>43</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="6">
-        <v>44</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>40</v>
+      <c r="K39" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>29</v>
+      <c r="C40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="G40" s="6">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>10</v>
@@ -2132,69 +2189,69 @@
       <c r="I40" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>40</v>
+      <c r="J40" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>6</v>
+      <c r="A41" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G41" s="6">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K41" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>27</v>
+      <c r="C42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G42" s="6">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>10</v>
@@ -2203,33 +2260,33 @@
         <v>11</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="K42" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>47</v>
+      <c r="C43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="G43" s="6">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>10</v>
@@ -2238,16 +2295,541 @@
         <v>11</v>
       </c>
       <c r="J43" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="6">
+        <v>49</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" s="6">
+        <v>50</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="6">
+        <v>51</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K43" s="6" t="s">
-        <v>40</v>
+      <c r="K46" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="6">
+        <v>52</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K47" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" s="6">
+        <v>53</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K48" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="6">
+        <v>54</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K49" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="6">
+        <v>55</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="6">
+        <v>56</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G52" s="6">
+        <v>57</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K52" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="6">
+        <v>58</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K53" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="6">
+        <v>59</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K54" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="6">
+        <v>60</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K55" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="6">
+        <v>61</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" s="6">
+        <v>62</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="6">
+        <v>63</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K58" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K43" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K27">
-      <sortCondition ref="G1:G27"/>
+  <autoFilter ref="A1:K58" xr:uid="{6A237DF4-CBBE-4C74-8641-4426A1998BBB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K46">
+      <sortCondition descending="1" ref="G1:G46"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N223">

--- a/input/params_special.xlsx
+++ b/input/params_special.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sobczakk\OneDrive - Takeda\Documents\GIT REPOS\cpv\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="11_34C2B377663F4BAD935724B84C902A23CE857F24" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{5D8ADB74-CCB8-4C05-8623-A5A072A5A83B}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="102_{D9E7DF95-67E1-4BF1-84CE-C352D2159D46}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{8AB1D8F7-A023-491C-9F45-287ACB9B908C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="3120" windowWidth="21315" windowHeight="12165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,9 +206,6 @@
     <t>PP_CM_IPT_W</t>
   </si>
   <si>
-    <t>COMP_MEAN_WEIGHT</t>
-  </si>
-  <si>
     <t>COAT_MEAN_WEIGHT</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
     <t>Weight/Thickness/Hardness IPTs: 50%</t>
   </si>
   <si>
-    <t>COMP_MEAN_WEIGHT_MIDDLE</t>
-  </si>
-  <si>
     <t>COMP_MAX_THICKNESS_MIDDLE</t>
   </si>
   <si>
@@ -230,46 +224,52 @@
     <t>PP_CM_IPT_W_%CV</t>
   </si>
   <si>
-    <t>COMP_MEAN_WEIGHT_CV_MIDDLE</t>
-  </si>
-  <si>
     <t>COMP_AVG_HARDNESS_MIDDLE</t>
   </si>
   <si>
     <t>Weight/Thickness/Hardness IPTs: 90%</t>
   </si>
   <si>
-    <t>COMP_MEAN_WEIGHT_END</t>
-  </si>
-  <si>
     <t>COMP_MAX_THICKNESS_END</t>
   </si>
   <si>
     <t>COMP_MIN_THICKNESS_END</t>
   </si>
   <si>
-    <t>COMP_MEAN_WEIGHT_CV_END</t>
-  </si>
-  <si>
     <t>COMP_AVG_HARDNESS_END</t>
   </si>
   <si>
     <t>Weight/Thickness/Hardness IPTs:1st TIC</t>
   </si>
   <si>
-    <t>COMP_MEAN_WEIGHT_START</t>
-  </si>
-  <si>
     <t>COMP_MAX_THICKNESS_START</t>
   </si>
   <si>
     <t>COMP_MIN_THICKNESS_START</t>
   </si>
   <si>
-    <t>COMP_MEAN_WEIGHT_CV_START</t>
-  </si>
-  <si>
     <t>COMP_AVG_HARDNESS_START</t>
+  </si>
+  <si>
+    <t>COMP_WEIGHT_MEAN</t>
+  </si>
+  <si>
+    <t>COMP_WEIGHT_MEAN_MIDDLE</t>
+  </si>
+  <si>
+    <t>COMP_WEIGHT_MEAN_CV_MIDDLE</t>
+  </si>
+  <si>
+    <t>COMP_WEIGHT_MEAN_END</t>
+  </si>
+  <si>
+    <t>COMP_WEIGHT_MEAN_CV_END</t>
+  </si>
+  <si>
+    <t>COMP_WEIGHT_MEAN_START</t>
+  </si>
+  <si>
+    <t>COMP_WEIGHT_MEAN_CV_START</t>
   </si>
 </sst>
 </file>
@@ -778,7 +778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +985,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>51</v>
@@ -1020,7 +1020,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>33</v>
@@ -1055,7 +1055,7 @@
         <v>46</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>50</v>
@@ -1090,7 +1090,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>31</v>
@@ -1125,7 +1125,7 @@
         <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>51</v>
@@ -1160,7 +1160,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>33</v>
@@ -1195,7 +1195,7 @@
         <v>46</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>50</v>
@@ -1230,7 +1230,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>31</v>
@@ -1968,7 +1968,7 @@
         <v>18</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34" s="6">
         <v>10</v>
@@ -2038,7 +2038,7 @@
         <v>18</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G36" s="6">
         <v>8</v>
@@ -2315,10 +2315,10 @@
         <v>57</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G44" s="6">
         <v>49</v>
@@ -2350,10 +2350,10 @@
         <v>13</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="G45" s="6">
         <v>50</v>
@@ -2385,10 +2385,10 @@
         <v>12</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G46" s="6">
         <v>51</v>
@@ -2417,13 +2417,13 @@
         <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G47" s="6">
         <v>52</v>
@@ -2455,10 +2455,10 @@
         <v>9</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G48" s="6">
         <v>53</v>
@@ -2490,10 +2490,10 @@
         <v>57</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G49" s="6">
         <v>54</v>
@@ -2525,10 +2525,10 @@
         <v>13</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G50" s="6">
         <v>55</v>
@@ -2560,10 +2560,10 @@
         <v>12</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G51" s="6">
         <v>56</v>
@@ -2592,13 +2592,13 @@
         <v>8</v>
       </c>
       <c r="D52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="F52" s="12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G52" s="6">
         <v>57</v>
@@ -2630,10 +2630,10 @@
         <v>9</v>
       </c>
       <c r="E53" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="G53" s="6">
         <v>58</v>
@@ -2665,10 +2665,10 @@
         <v>57</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G54" s="6">
         <v>59</v>
@@ -2700,10 +2700,10 @@
         <v>13</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G55" s="6">
         <v>60</v>
@@ -2735,10 +2735,10 @@
         <v>12</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G56" s="6">
         <v>61</v>
@@ -2767,13 +2767,13 @@
         <v>8</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G57" s="6">
         <v>62</v>
@@ -2805,10 +2805,10 @@
         <v>9</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G58" s="6">
         <v>63</v>

--- a/input/params_special.xlsx
+++ b/input/params_special.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sobczakk\OneDrive - Takeda\Documents\GIT REPOS\cpv\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="102_{D9E7DF95-67E1-4BF1-84CE-C352D2159D46}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{8AB1D8F7-A023-491C-9F45-287ACB9B908C}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="102_{D9E7DF95-67E1-4BF1-84CE-C352D2159D46}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{88B469E5-9C63-4E82-A97F-51C767372529}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="3120" windowWidth="21315" windowHeight="12165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6465" yWindow="810" windowWidth="21315" windowHeight="12165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$57</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="79">
   <si>
     <t>emi_master</t>
   </si>
@@ -249,9 +249,6 @@
   </si>
   <si>
     <t>COMP_AVG_HARDNESS_START</t>
-  </si>
-  <si>
-    <t>COMP_WEIGHT_MEAN</t>
   </si>
   <si>
     <t>COMP_WEIGHT_MEAN_MIDDLE</t>
@@ -774,11 +771,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,34 +2020,34 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="G36" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K36" s="4">
         <v>2</v>
@@ -2067,16 +2064,16 @@
         <v>8</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="G37" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>10</v>
@@ -2085,7 +2082,7 @@
         <v>22</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K37" s="4">
         <v>2</v>
@@ -2093,34 +2090,34 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="G38" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K38" s="4">
         <v>2</v>
@@ -2128,34 +2125,34 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G39" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K39" s="4">
         <v>2</v>
@@ -2163,10 +2160,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
@@ -2178,16 +2175,16 @@
         <v>18</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G40" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>39</v>
@@ -2198,34 +2195,34 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G41" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K41" s="4">
         <v>2</v>
@@ -2242,16 +2239,16 @@
         <v>8</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="G42" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>10</v>
@@ -2260,7 +2257,7 @@
         <v>11</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K42" s="4">
         <v>2</v>
@@ -2268,31 +2265,31 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="G43" s="6">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>37</v>
@@ -2312,16 +2309,16 @@
         <v>8</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G44" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>10</v>
@@ -2330,7 +2327,7 @@
         <v>22</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K44" s="4">
         <v>2</v>
@@ -2347,16 +2344,16 @@
         <v>8</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G45" s="6">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>10</v>
@@ -2365,7 +2362,7 @@
         <v>22</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K45" s="4">
         <v>2</v>
@@ -2382,16 +2379,16 @@
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G46" s="6">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>10</v>
@@ -2400,7 +2397,7 @@
         <v>22</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K46" s="4">
         <v>2</v>
@@ -2417,16 +2414,16 @@
         <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G47" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>10</v>
@@ -2452,16 +2449,16 @@
         <v>8</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G48" s="6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>10</v>
@@ -2487,16 +2484,16 @@
         <v>8</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>65</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G49" s="6">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>10</v>
@@ -2505,7 +2502,7 @@
         <v>22</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K49" s="4">
         <v>2</v>
@@ -2522,16 +2519,16 @@
         <v>8</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>65</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G50" s="6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>10</v>
@@ -2540,7 +2537,7 @@
         <v>22</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K50" s="4">
         <v>2</v>
@@ -2557,16 +2554,16 @@
         <v>8</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>65</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G51" s="6">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>10</v>
@@ -2575,7 +2572,7 @@
         <v>22</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K51" s="4">
         <v>2</v>
@@ -2592,16 +2589,16 @@
         <v>8</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>65</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G52" s="6">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>10</v>
@@ -2627,16 +2624,16 @@
         <v>8</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G53" s="6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>10</v>
@@ -2662,16 +2659,16 @@
         <v>8</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>69</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G54" s="6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>10</v>
@@ -2680,7 +2677,7 @@
         <v>22</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K54" s="4">
         <v>2</v>
@@ -2697,16 +2694,16 @@
         <v>8</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>69</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G55" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>10</v>
@@ -2715,7 +2712,7 @@
         <v>22</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K55" s="4">
         <v>2</v>
@@ -2732,16 +2729,16 @@
         <v>8</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>69</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G56" s="6">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>10</v>
@@ -2750,7 +2747,7 @@
         <v>22</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K56" s="4">
         <v>2</v>
@@ -2767,16 +2764,16 @@
         <v>8</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>69</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G57" s="6">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>10</v>
@@ -2791,52 +2788,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" s="6">
-        <v>63</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K58" s="4">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K58" xr:uid="{6A237DF4-CBBE-4C74-8641-4426A1998BBB}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K46">
-      <sortCondition descending="1" ref="G1:G46"/>
+  <autoFilter ref="A1:K57" xr:uid="{6A237DF4-CBBE-4C74-8641-4426A1998BBB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K45">
+      <sortCondition descending="1" ref="G1:G45"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N223">
-    <sortCondition ref="A2:A223"/>
-    <sortCondition ref="B2:B223"/>
-    <sortCondition ref="C2:C223"/>
-    <sortCondition ref="D2:D223"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N222">
+    <sortCondition ref="A2:A222"/>
+    <sortCondition ref="B2:B222"/>
+    <sortCondition ref="C2:C222"/>
+    <sortCondition ref="D2:D222"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/input/params_special.xlsx
+++ b/input/params_special.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sobczakk\OneDrive - Takeda\Documents\GIT REPOS\cpv\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="102_{D9E7DF95-67E1-4BF1-84CE-C352D2159D46}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{88B469E5-9C63-4E82-A97F-51C767372529}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="102_{D9E7DF95-67E1-4BF1-84CE-C352D2159D46}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{C18B68C8-51FA-4EA5-8B5F-07A82395C0E7}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="810" windowWidth="21315" windowHeight="12165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="81">
   <si>
     <t>emi_master</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>COMP_WEIGHT_MEAN_CV_START</t>
+  </si>
+  <si>
+    <t>EMI_0201</t>
+  </si>
+  <si>
+    <t>TCV-116</t>
   </si>
 </sst>
 </file>
@@ -771,11 +777,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +790,7 @@
     <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="12" style="5" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="43.42578125" style="12" customWidth="1"/>
     <col min="7" max="7" width="18" style="6" customWidth="1"/>
     <col min="8" max="9" width="15.28515625" style="7" customWidth="1"/>
@@ -829,26 +835,26 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>47</v>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="G2" s="6">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>10</v>
@@ -857,33 +863,33 @@
         <v>11</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>27</v>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G3" s="6">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>10</v>
@@ -892,33 +898,33 @@
         <v>11</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>46</v>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G4" s="6">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
@@ -926,11 +932,11 @@
       <c r="I4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>40</v>
+      <c r="J4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -970,34 +976,34 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>40</v>
@@ -1005,10 +1011,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
@@ -1017,19 +1023,19 @@
         <v>27</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="6">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>39</v>
@@ -1040,235 +1046,235 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="6">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>45</v>
+      <c r="A9" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G9" s="6">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>41</v>
+      <c r="A10" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G10" s="6">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>41</v>
+      <c r="A11" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="G11" s="6">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>41</v>
+      <c r="A12" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G12" s="6">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>41</v>
+      <c r="A13" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G13" s="6">
+        <v>49</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>40</v>
+      <c r="K13" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>47</v>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="G14" s="6">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>10</v>
@@ -1277,33 +1283,33 @@
         <v>22</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="K14" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>27</v>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="G15" s="6">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>10</v>
@@ -1312,33 +1318,33 @@
         <v>22</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>46</v>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G16" s="6">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>10</v>
@@ -1346,34 +1352,34 @@
       <c r="I16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>40</v>
+      <c r="J16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>29</v>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="G17" s="6">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>10</v>
@@ -1381,194 +1387,194 @@
       <c r="I17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>40</v>
+      <c r="J17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="6">
+        <v>62</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F19" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="6">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="G19" s="6">
+        <v>7</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K18" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="6">
-        <v>31</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>40</v>
+      <c r="K19" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>14</v>
+      <c r="A20" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G20" s="6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="K20" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>14</v>
+      <c r="A21" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G21" s="6">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>40</v>
+      <c r="K21" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>14</v>
+      <c r="A22" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G22" s="6">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>40</v>
+      <c r="K22" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
@@ -1583,13 +1589,13 @@
         <v>54</v>
       </c>
       <c r="G23" s="6">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>39</v>
@@ -1600,138 +1606,138 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="G24" s="6">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K24" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>14</v>
+      <c r="A25" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G25" s="6">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="6" t="s">
-        <v>40</v>
+      <c r="K25" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>14</v>
+      <c r="A26" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="G26" s="6">
+        <v>61</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>40</v>
+      <c r="K26" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G27" s="6">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>38</v>
       </c>
       <c r="K27" s="6" t="s">
@@ -1740,33 +1746,33 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G28" s="6">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>38</v>
       </c>
       <c r="K28" s="6" t="s">
@@ -1774,78 +1780,78 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>14</v>
+      <c r="A29" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G29" s="6">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="4">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>45</v>
+      <c r="A30" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G30" s="6">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K30" s="4">
-        <v>2</v>
+      <c r="K30" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>42</v>
@@ -1863,13 +1869,13 @@
         <v>53</v>
       </c>
       <c r="G31" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>38</v>
@@ -1914,26 +1920,26 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>13</v>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G33" s="6">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>10</v>
@@ -1941,148 +1947,148 @@
       <c r="I33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="4">
-        <v>2</v>
+      <c r="K33" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>14</v>
+      <c r="A34" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G34" s="6">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="4">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>20</v>
+      <c r="A35" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G35" s="6">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K35" s="4">
-        <v>2</v>
+      <c r="K35" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>20</v>
+      <c r="A36" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G36" s="6">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K36" s="4">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="G37" s="6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K37" s="4">
         <v>2</v>
@@ -2090,206 +2096,206 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G38" s="6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="J38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="6">
+        <v>41</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K38" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="6">
-        <v>4</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J39" s="6" t="s">
+      <c r="K39" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="6">
+        <v>42</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="6">
+        <v>43</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K39" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="6">
-        <v>3</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="6" t="s">
+      <c r="K41" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="6">
+        <v>44</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K40" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" s="6">
-        <v>2</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K41" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" s="6">
-        <v>1</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K42" s="4">
-        <v>2</v>
+      <c r="K42" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="G43" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>37</v>
@@ -2300,34 +2306,34 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G44" s="6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K44" s="4">
         <v>2</v>
@@ -2335,34 +2341,34 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G45" s="6">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K45" s="4">
         <v>2</v>
@@ -2370,206 +2376,206 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="6">
+        <v>3</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K46" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="6">
         <v>20</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="H47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" s="6">
         <v>21</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G46" s="6">
-        <v>52</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="7" t="s">
+      <c r="H48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="6">
         <v>22</v>
       </c>
-      <c r="J46" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K46" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" s="6">
-        <v>53</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K47" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G48" s="6">
-        <v>54</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K48" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" s="6">
-        <v>55</v>
-      </c>
       <c r="H49" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K49" s="4">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>20</v>
+      <c r="A50" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G50" s="6">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J50" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K50" s="4">
-        <v>2</v>
+      <c r="K50" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="G51" s="6">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J51" s="6" t="s">
         <v>37</v>
@@ -2580,34 +2586,34 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G52" s="6">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K52" s="4">
         <v>2</v>
@@ -2615,183 +2621,956 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="6">
+        <v>26</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K53" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="6">
+        <v>28</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" s="6">
+        <v>29</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="6">
+        <v>30</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57" s="6">
+        <v>31</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="6">
+        <v>64</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K58" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="6">
+        <v>65</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K59" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" s="6">
+        <v>66</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K60" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" s="6">
+        <v>67</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K61" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E62" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" s="6">
+        <v>68</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K62" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" s="6">
         <v>69</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="H63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K63" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G53" s="6">
-        <v>59</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J53" s="6" t="s">
+      <c r="G64" s="6">
+        <v>70</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J64" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K53" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="K64" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G65" s="6">
+        <v>71</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K65" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="6">
+        <v>72</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K66" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" s="6">
+        <v>73</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K67" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G68" s="6">
+        <v>74</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K68" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" s="6">
+        <v>75</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K69" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G70" s="6">
+        <v>76</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K70" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F71" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G71" s="6">
+        <v>77</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K71" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G72" s="6">
+        <v>78</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K72" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J54" s="6" t="s">
+      <c r="F73" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G73" s="6">
+        <v>79</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K73" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G74" s="6">
+        <v>80</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K74" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75" s="6">
+        <v>81</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K75" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="6">
+        <v>82</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J76" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K54" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G55" s="6">
-        <v>61</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J55" s="6" t="s">
+      <c r="K76" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G77" s="6">
+        <v>83</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G78" s="6">
+        <v>84</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J78" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K55" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G56" s="6">
-        <v>62</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K56" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" s="6">
-        <v>63</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K57" s="4">
-        <v>2</v>
+      <c r="K78" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G79" s="6">
+        <v>85</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K57" xr:uid="{6A237DF4-CBBE-4C74-8641-4426A1998BBB}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K45">
-      <sortCondition descending="1" ref="G1:G45"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K57">
+      <sortCondition ref="A2:A57"/>
+      <sortCondition ref="B2:B57"/>
+      <sortCondition ref="C2:C57"/>
+      <sortCondition ref="D2:D57"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N222">
